--- a/1_Input_data/Index.xlsx
+++ b/1_Input_data/Index.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jmunozav/Desktop/Zika/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jmunozav/Desktop/Zika_imputation/1_Input_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C071E2C1-F674-8444-9F48-7A42F4B7FCDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1646D965-DEFB-CB49-8897-C676E4D8DC4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1620" yWindow="500" windowWidth="22160" windowHeight="16060" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -5237,9 +5237,6 @@
     <t>Mabel</t>
   </si>
   <si>
-    <t>Joha</t>
-  </si>
-  <si>
     <t>zikv_gan</t>
   </si>
   <si>
@@ -5295,6 +5292,9 @@
   </si>
   <si>
     <t>13.5</t>
+  </si>
+  <si>
+    <t>Final</t>
   </si>
 </sst>
 </file>
@@ -6086,7 +6086,7 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView topLeftCell="A32" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A134" sqref="A134:XFD134"/>
     </sheetView>
   </sheetViews>
@@ -36128,7 +36128,7 @@
   <dimension ref="A1:J103"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H103" sqref="H4:H103"/>
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.28515625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -36160,13 +36160,13 @@
         <v>0</v>
       </c>
       <c r="H1" s="21" t="s">
-        <v>498</v>
+        <v>517</v>
       </c>
       <c r="I1" s="21" t="s">
+        <v>511</v>
+      </c>
+      <c r="J1" s="21" t="s">
         <v>512</v>
-      </c>
-      <c r="J1" s="21" t="s">
-        <v>513</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
@@ -36369,7 +36369,7 @@
         <v>7</v>
       </c>
       <c r="J10" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -36673,7 +36673,7 @@
         <v>1</v>
       </c>
       <c r="I21" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="J21">
         <v>1</v>
@@ -36822,7 +36822,7 @@
         <v>1</v>
       </c>
       <c r="I28" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="J28">
         <v>1</v>
@@ -37409,7 +37409,7 @@
     </row>
     <row r="53" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="7" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B53" s="18">
         <v>4</v>
@@ -37431,7 +37431,7 @@
         <v>1</v>
       </c>
       <c r="I53" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="J53">
         <v>1</v>
@@ -37439,7 +37439,7 @@
     </row>
     <row r="54" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="7" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B54" s="18">
         <v>4</v>
@@ -37449,7 +37449,7 @@
       </c>
       <c r="D54" s="12"/>
       <c r="E54" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="G54" t="s">
         <v>144</v>
@@ -37902,7 +37902,7 @@
       <c r="C74" s="18"/>
       <c r="D74" s="12"/>
       <c r="E74" s="25" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="G74" s="25" t="s">
         <v>144</v>
@@ -37918,7 +37918,7 @@
       <c r="C75" s="18"/>
       <c r="D75" s="12"/>
       <c r="E75" s="25" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="G75" s="25" t="s">
         <v>144</v>
@@ -37946,7 +37946,7 @@
     </row>
     <row r="77" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="24" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B77" s="23">
         <v>4</v>
@@ -37956,7 +37956,7 @@
       </c>
       <c r="D77" s="12"/>
       <c r="E77" s="25" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="G77" s="25" t="s">
         <v>144</v>
@@ -37973,7 +37973,7 @@
     </row>
     <row r="78" spans="1:10" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="24" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B78" s="23">
         <v>4</v>
@@ -37983,7 +37983,7 @@
       </c>
       <c r="D78" s="12"/>
       <c r="E78" s="25" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="G78" s="25" t="s">
         <v>144</v>
@@ -37994,7 +37994,7 @@
     </row>
     <row r="79" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="24" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="B79" s="23">
         <v>4</v>
@@ -38002,7 +38002,7 @@
       <c r="C79" s="21"/>
       <c r="D79" s="12"/>
       <c r="E79" s="25" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="G79" s="25" t="s">
         <v>144</v>
@@ -38492,7 +38492,7 @@
     </row>
     <row r="101" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="27" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="I101">
         <v>22</v>
@@ -38500,7 +38500,7 @@
     </row>
     <row r="102" spans="1:10" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="27" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="I102">
         <v>23</v>
